--- a/words_data/words.xlsx
+++ b/words_data/words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Visual_Studio\words\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Android_Studio_Workspace\vocab-lib\words_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D38F3-AD10-4F7F-8659-CD00ED682B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2189135-61F8-454C-9D3F-57EB04333B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2606" yWindow="1414" windowWidth="23717" windowHeight="16672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8134" yWindow="2366" windowWidth="23717" windowHeight="14434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="273">
   <si>
     <t>stopgap</t>
   </si>
@@ -858,6 +858,100 @@
   </si>
   <si>
     <t>Bring Ya Ya home': How a panda in the US turbocharged Chinese nationalist sentiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文书的，牧师的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clerical error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔误，错写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I made a clerical error.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinvigorate</t>
+  </si>
+  <si>
+    <t>casserole </t>
+  </si>
+  <si>
+    <t>proposition </t>
+  </si>
+  <si>
+    <t>使复兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraft Heinz has been trying to reinvigorate decades-old brands like Velveeta and Oscar Mayer.</t>
+  </si>
+  <si>
+    <t>烹饪，菜肴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuisine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantonese cuisine 粤菜</t>
+  </si>
+  <si>
+    <t>砂锅菜，烘焙菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat and noodles served in a casserole.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥夺，抛弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homebake was divesting natural cheese business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论点，主张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/03/business/kraft-heinz-frozen-meals/index.html</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/03/business/kraft-heinz-frozen-meals/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraft wants to remake the TV dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（商场货架之间的）过道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +992,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -921,11 +1015,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -954,11 +1061,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1049,6 +1168,25 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1134,11 +1272,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:F111" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F111" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{408CA4B4-5772-4747-BD58-41C784593BF0}" name="english_word" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A94E175C-7535-4548-ACC9-2BDE26D96277}" name="chinese_meaning" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:G120" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G120" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{408CA4B4-5772-4747-BD58-41C784593BF0}" name="english_word" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A94E175C-7535-4548-ACC9-2BDE26D96277}" name="chinese_meaning" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F5F01549-1721-43E5-BE9D-CE9C5A92FEC3}" name="phrase" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{53F89CBA-2F13-4621-9C8C-2E528BD8399B}" name="example_sentences" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{296E961E-2977-49DC-8510-53D23DB1D3CE}" name="source" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{D93CAC9D-11A6-4A4F-82CE-007E5D9CE4D8}" name="title" dataDxfId="1"/>
@@ -1411,1617 +1550,1890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.78515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="44" style="4" customWidth="1"/>
-    <col min="3" max="3" width="49.35546875" customWidth="1"/>
-    <col min="4" max="4" width="68.78515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.35546875" customWidth="1"/>
+    <col min="5" max="5" width="68.78515625" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8">
+      <c r="F34" s="7"/>
+      <c r="G34" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8">
+      <c r="F35" s="7"/>
+      <c r="G35" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8">
+      <c r="F36" s="7"/>
+      <c r="G36" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8">
+      <c r="F37" s="7"/>
+      <c r="G37" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8">
+      <c r="F38" s="7"/>
+      <c r="G38" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8">
+      <c r="F39" s="7"/>
+      <c r="G39" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8">
+      <c r="F40" s="7"/>
+      <c r="G40" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8">
+      <c r="F41" s="7"/>
+      <c r="G41" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8">
+      <c r="F42" s="7"/>
+      <c r="G42" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8">
+      <c r="F43" s="7"/>
+      <c r="G43" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8">
+      <c r="F44" s="7"/>
+      <c r="G44" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8">
+      <c r="F45" s="7"/>
+      <c r="G45" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8">
+      <c r="F46" s="7"/>
+      <c r="G46" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8">
+      <c r="F47" s="7"/>
+      <c r="G47" s="8">
         <v>44649</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8">
+      <c r="F48" s="7"/>
+      <c r="G48" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8">
+      <c r="F49" s="7"/>
+      <c r="G49" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8">
+      <c r="F50" s="7"/>
+      <c r="G50" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8">
+      <c r="F51" s="7"/>
+      <c r="G51" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8">
+      <c r="F52" s="7"/>
+      <c r="G52" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8">
+      <c r="F53" s="7"/>
+      <c r="G53" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8">
+      <c r="F54" s="7"/>
+      <c r="G54" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8">
+      <c r="F55" s="7"/>
+      <c r="G55" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8">
+      <c r="F56" s="7"/>
+      <c r="G56" s="8">
         <v>44655</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8">
+      <c r="F59" s="7"/>
+      <c r="G59" s="8">
         <v>44765</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8">
+      <c r="F60" s="7"/>
+      <c r="G60" s="8">
         <v>44775</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7" t="s">
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7" t="s">
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7" t="s">
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7" t="s">
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7" t="s">
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7" t="s">
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6"/>
+      <c r="D77" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6"/>
+      <c r="D78" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="E78" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6"/>
+      <c r="D79" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6"/>
+      <c r="D82" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7" t="s">
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6"/>
+      <c r="D85" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6"/>
+      <c r="D86" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6"/>
+      <c r="D88" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6"/>
+      <c r="D89" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6"/>
+      <c r="D90" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7" t="s">
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="F91" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7" t="s">
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7" t="s">
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7" t="s">
+      <c r="C95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6"/>
+      <c r="D96" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6"/>
+      <c r="D97" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="F97" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B98" s="6"/>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6"/>
+      <c r="D98" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="F98" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7" t="s">
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="F99" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6"/>
+      <c r="D100" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="F100" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6"/>
+      <c r="D101" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="F101" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6"/>
+      <c r="D102" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="F102" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6"/>
+      <c r="D103" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6"/>
+      <c r="D104" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="F104" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7" t="s">
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="F105" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6"/>
+      <c r="D106" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="F106" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7" t="s">
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="F107" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7" t="s">
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="F108" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7" t="s">
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="F109" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6"/>
+      <c r="D110" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="F110" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G112" s="13">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G113" s="13">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G114" s="13">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G115" s="13">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G116" s="13">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G117" s="13">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="10"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/words_data/words.xlsx
+++ b/words_data/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Android_Studio_Workspace\vocab-lib\words_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2189135-61F8-454C-9D3F-57EB04333B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4293504C-67CA-4477-BF5B-1F81B5DCC18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8134" yWindow="2366" windowWidth="23717" windowHeight="14434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="332">
   <si>
     <t>stopgap</t>
   </si>
@@ -954,11 +954,234 @@
     <t>（商场货架之间的）过道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>overindulging </t>
+  </si>
+  <si>
+    <t>flesh</t>
+  </si>
+  <si>
+    <t>mayonnaise</t>
+  </si>
+  <si>
+    <t>probiotics</t>
+  </si>
+  <si>
+    <t>artisanal </t>
+  </si>
+  <si>
+    <t>indulge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度放纵，过多享用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁就，任凭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You just want to eat it where you’re not overindulging too much, because it can quickly add up in terms of calories.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The protein found in cheese is a good alternative to protein derived from flesh.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentic ricotta is produced by treating the whey that is leftover after milk is coagulated to produce cheese.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whey </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coagulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝固，使结块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳清（牛奶结块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasteurize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用巴氏灭菌消毒 v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋黄酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前生论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some cheeses can also be a good source of probiotics, and cheese made from raw or unpasteurized milk as great options.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The artisanal cheese varieties can cost a pretty penny.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2021/11/07/health/healthiest-cheese-wellness/index.html</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2021/11/07/health/healthiest-cheese-wellness/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What’s the healthiest cheese? The best options, according to experts</t>
+  </si>
+  <si>
+    <t>plea </t>
+  </si>
+  <si>
+    <t>misdemeanor </t>
+  </si>
+  <si>
+    <t>probation</t>
+  </si>
+  <si>
+    <t>staunchly </t>
+  </si>
+  <si>
+    <t>swath </t>
+  </si>
+  <si>
+    <t>antics </t>
+  </si>
+  <si>
+    <t>orgy </t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/05/politics/madison-cawthorn-loaded-handgun-airport/index.html</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/05/politics/madison-cawthorn-loaded-handgun-airport/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madison Cawthorn pleads guilty in case over bringing a loaded handgun through TSA checkpoint</t>
+  </si>
+  <si>
+    <t>plead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaded guilty 认罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩护，恳求 v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩护，恳求 n.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guilty plea 有罪答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third-degree misdemeanor 轻罪三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓刑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The former Republican congressman was fined $250, without probation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He remains staunchly committed to responsible gun ownership.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细长的列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a swath of his colleagues 他的同事们 a swath of land 一片土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽可笑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>podcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢宴会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He claimed on a podcast that he had been invited to an orgy in Washington. 他曾发过被邀请去参加狂欢宴会的博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curb </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马路牙子 n. 限制，克制 v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curb drug addiction 克制毒瘾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,7 +1215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1028,11 +1251,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,9 +1291,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1070,7 +1303,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,6 +1336,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1126,7 +1384,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1139,17 +1397,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1162,17 +1414,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1185,8 +1431,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1272,8 +1516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:G120" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G120" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:G145" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G145" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{408CA4B4-5772-4747-BD58-41C784593BF0}" name="english_word" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A94E175C-7535-4548-ACC9-2BDE26D96277}" name="chinese_meaning" dataDxfId="5"/>
@@ -1550,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1601,7 +1845,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1614,7 +1858,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -1627,7 +1871,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -1640,7 +1884,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1653,7 +1897,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1666,7 +1910,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -1679,7 +1923,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1692,7 +1936,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1705,7 +1949,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1718,7 +1962,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1731,7 +1975,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1744,7 +1988,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1757,7 +2001,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -1770,7 +2014,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -1783,7 +2027,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -1796,7 +2040,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -1809,7 +2053,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -1822,7 +2066,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -1835,7 +2079,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -1848,7 +2092,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1861,7 +2105,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -1874,7 +2118,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -1887,7 +2131,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -1900,7 +2144,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -1913,7 +2157,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -1926,7 +2170,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -1939,7 +2183,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -1952,7 +2196,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -1965,7 +2209,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -1978,7 +2222,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -1991,7 +2235,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
@@ -2004,7 +2248,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
@@ -2019,7 +2263,7 @@
         <v>96</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="8">
+      <c r="G34" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2036,7 +2280,7 @@
         <v>96</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="8">
+      <c r="G35" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2053,7 +2297,7 @@
         <v>95</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="8">
+      <c r="G36" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2070,7 +2314,7 @@
         <v>95</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="8">
+      <c r="G37" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2087,7 +2331,7 @@
         <v>95</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="8">
+      <c r="G38" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2104,7 +2348,7 @@
         <v>95</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="8">
+      <c r="G39" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2121,7 +2365,7 @@
         <v>95</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="8">
+      <c r="G40" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2138,7 +2382,7 @@
         <v>95</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="8">
+      <c r="G41" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2155,7 +2399,7 @@
         <v>95</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="8">
+      <c r="G42" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2172,7 +2416,7 @@
         <v>95</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="8">
+      <c r="G43" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2189,7 +2433,7 @@
         <v>95</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="8">
+      <c r="G44" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2206,7 +2450,7 @@
         <v>95</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="8">
+      <c r="G45" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2223,7 +2467,7 @@
         <v>95</v>
       </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="8">
+      <c r="G46" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2240,7 +2484,7 @@
         <v>95</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="8">
+      <c r="G47" s="18">
         <v>44649</v>
       </c>
     </row>
@@ -2255,7 +2499,7 @@
         <v>107</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="8">
+      <c r="G48" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2270,7 +2514,7 @@
         <v>106</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="8">
+      <c r="G49" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2285,7 +2529,7 @@
         <v>106</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="8">
+      <c r="G50" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2300,7 +2544,7 @@
         <v>106</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="8">
+      <c r="G51" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2315,7 +2559,7 @@
         <v>106</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="8">
+      <c r="G52" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2330,7 +2574,7 @@
         <v>106</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="8">
+      <c r="G53" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2345,7 +2589,7 @@
         <v>106</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="8">
+      <c r="G54" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2360,7 +2604,7 @@
         <v>106</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="8">
+      <c r="G55" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2375,7 +2619,7 @@
         <v>106</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="8">
+      <c r="G56" s="18">
         <v>44655</v>
       </c>
     </row>
@@ -2390,7 +2634,7 @@
         <v>110</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
@@ -2403,7 +2647,7 @@
         <v>110</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
@@ -2418,7 +2662,7 @@
         <v>113</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="8">
+      <c r="G59" s="18">
         <v>44765</v>
       </c>
     </row>
@@ -2435,7 +2679,7 @@
         <v>115</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="8">
+      <c r="G60" s="18">
         <v>44775</v>
       </c>
     </row>
@@ -2452,7 +2696,7 @@
         <v>114</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -2467,7 +2711,7 @@
         <v>114</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
@@ -2482,7 +2726,7 @@
         <v>116</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
@@ -2497,7 +2741,7 @@
         <v>116</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
@@ -2512,7 +2756,7 @@
         <v>117</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
@@ -2527,7 +2771,7 @@
         <v>118</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
@@ -2542,7 +2786,7 @@
         <v>118</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
@@ -2557,7 +2801,7 @@
         <v>118</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
@@ -2572,7 +2816,7 @@
         <v>118</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
@@ -2587,7 +2831,7 @@
         <v>118</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
@@ -2602,7 +2846,7 @@
         <v>119</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
@@ -2617,7 +2861,7 @@
         <v>119</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
@@ -2632,7 +2876,7 @@
         <v>119</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
@@ -2647,7 +2891,7 @@
         <v>119</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
@@ -2660,7 +2904,7 @@
         <v>121</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
@@ -2675,7 +2919,7 @@
         <v>121</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -2690,7 +2934,7 @@
         <v>158</v>
       </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
@@ -2705,7 +2949,7 @@
         <v>158</v>
       </c>
       <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
@@ -2722,7 +2966,7 @@
         <v>158</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
@@ -2737,7 +2981,7 @@
         <v>174</v>
       </c>
       <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -2752,7 +2996,7 @@
         <v>174</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
@@ -2769,7 +3013,7 @@
         <v>174</v>
       </c>
       <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
@@ -2784,7 +3028,7 @@
         <v>174</v>
       </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
@@ -2799,7 +3043,7 @@
         <v>174</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="18"/>
     </row>
     <row r="85" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -2816,7 +3060,7 @@
         <v>174</v>
       </c>
       <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="18"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -2833,7 +3077,7 @@
         <v>178</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
@@ -2850,7 +3094,7 @@
         <v>203</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
@@ -2869,7 +3113,7 @@
       <c r="F88" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G88" s="7"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="89" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
@@ -2888,7 +3132,7 @@
       <c r="F89" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
@@ -2907,7 +3151,7 @@
       <c r="F90" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G90" s="7"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
@@ -2924,7 +3168,7 @@
       <c r="F91" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G91" s="7"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -2941,7 +3185,7 @@
       <c r="F92" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G92" s="7"/>
+      <c r="G92" s="18"/>
     </row>
     <row r="93" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
@@ -2958,7 +3202,7 @@
       <c r="F93" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G93" s="7"/>
+      <c r="G93" s="18"/>
     </row>
     <row r="94" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -2975,7 +3219,7 @@
       <c r="F94" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G94" s="7"/>
+      <c r="G94" s="18"/>
     </row>
     <row r="95" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
@@ -2992,7 +3236,7 @@
       <c r="F95" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="7"/>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
@@ -3011,7 +3255,7 @@
       <c r="F96" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="7"/>
+      <c r="G96" s="18"/>
     </row>
     <row r="97" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
@@ -3027,10 +3271,10 @@
       <c r="E97" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G97" s="7"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
@@ -3044,10 +3288,10 @@
       <c r="E98" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G98" s="7"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
@@ -3061,10 +3305,10 @@
       <c r="E99" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G99" s="7"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
@@ -3080,10 +3324,10 @@
       <c r="E100" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G100" s="7"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
@@ -3099,10 +3343,10 @@
       <c r="E101" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G101" s="7"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -3118,10 +3362,10 @@
       <c r="E102" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G102" s="7"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
@@ -3137,10 +3381,10 @@
       <c r="E103" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G103" s="7"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
@@ -3156,10 +3400,10 @@
       <c r="E104" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G104" s="7"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
@@ -3173,10 +3417,10 @@
       <c r="E105" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G105" s="7"/>
+      <c r="G105" s="18"/>
     </row>
     <row r="106" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
@@ -3192,10 +3436,10 @@
       <c r="E106" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G106" s="7"/>
+      <c r="G106" s="18"/>
     </row>
     <row r="107" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -3209,10 +3453,10 @@
       <c r="E107" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G107" s="7"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
@@ -3226,10 +3470,10 @@
       <c r="E108" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G108" s="7"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
@@ -3243,10 +3487,10 @@
       <c r="E109" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G109" s="7"/>
+      <c r="G109" s="18"/>
     </row>
     <row r="110" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
@@ -3262,10 +3506,10 @@
       <c r="E110" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G110" s="7"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
@@ -3278,7 +3522,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
@@ -3297,7 +3541,7 @@
       <c r="F112" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G112" s="13">
+      <c r="G112" s="18">
         <v>45049</v>
       </c>
     </row>
@@ -3318,7 +3562,7 @@
       <c r="F113" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G113" s="13">
+      <c r="G113" s="18">
         <v>45049</v>
       </c>
     </row>
@@ -3339,7 +3583,7 @@
       <c r="F114" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G114" s="13">
+      <c r="G114" s="18">
         <v>45049</v>
       </c>
     </row>
@@ -3360,7 +3604,7 @@
       <c r="F115" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="18">
         <v>45049</v>
       </c>
     </row>
@@ -3381,7 +3625,7 @@
       <c r="F116" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G116" s="13">
+      <c r="G116" s="18">
         <v>45049</v>
       </c>
     </row>
@@ -3400,40 +3644,491 @@
       <c r="F117" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="18">
         <v>45049</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="1:7" s="13" customFormat="1" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A119" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G119" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="13" customFormat="1" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C120" s="15"/>
       <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
+      <c r="E120" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G120" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A121" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G121" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G122" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G123" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G124" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G125" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G126" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G127" s="20">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G128" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G129" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G130" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G131" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G132" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G133" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G135" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G137" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G138" s="18">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="9"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="19"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="9"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="18"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="9"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="18"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="9"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="18"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="9"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="18"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="9"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="18"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="9"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/words_data/words.xlsx
+++ b/words_data/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Android_Studio_Workspace\vocab-lib\words_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4293504C-67CA-4477-BF5B-1F81B5DCC18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F4AB1-3371-437E-A5BD-87FD052E8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8554" yWindow="3446" windowWidth="23717" windowHeight="14434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="352">
   <si>
     <t>stopgap</t>
   </si>
@@ -678,500 +678,555 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hs message changed since mid-2021, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>coinciding with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> skepticism among conservatives who have at times booed President Donald Trump for touting Covid-19 vaccines.
+    <t>https://www.cnn.com/2023/04/25/health/florida-covid-vaccine-analysis-ladapo/index.html</t>
+  </si>
+  <si>
+    <t>Florida surgeon general altered Covid-19 vaccine analysis to suggest higher risk for younger men, Politico reports</t>
+  </si>
+  <si>
+    <t>Florida surgeon general altered Covid-19 vaccine analysis to suggest higher risk for younger men, Politico reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antagonistic</t>
+  </si>
+  <si>
+    <t>敌对的</t>
+  </si>
+  <si>
+    <t>Heated discussions highlight how antagonistic the US-China relationship has become.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some believed she had not been given proper care and attention - an accusation first levied by animal advocates in 2021 but denied repeatedly by the Memphis Zoo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outright</t>
+  </si>
+  <si>
+    <t>直率的，彻底的，直接的</t>
+  </si>
+  <si>
+    <t>provocation</t>
+  </si>
+  <si>
+    <t>激怒，挑衅</t>
+  </si>
+  <si>
+    <t>Treating our national treasure with such an attitude is an outright provocation of China.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒式扩散</t>
+  </si>
+  <si>
+    <t>effusive</t>
+  </si>
+  <si>
+    <t>感情横溢的</t>
+  </si>
+  <si>
+    <t>go viral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meanwhile, videos of two playful, energetic pandas at the Moscow Zoo went viral on Chinese social media, drawing effusive praise for Russia for its care of the Chinese bears.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seize on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用，抓住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordeal</t>
+  </si>
+  <si>
+    <t>苦难</t>
+  </si>
+  <si>
+    <t>Determined to rescue Ya Ya from her perceived ordeal, Chinese internet users rallied to bring the panda home as soon as possible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lade</t>
+  </si>
+  <si>
+    <t>装载</t>
+  </si>
+  <si>
+    <t>laden</t>
+  </si>
+  <si>
+    <t>装满的，负担重的</t>
+  </si>
+  <si>
+    <t>Like her arrival in the US, her return to China is laden with symbolism. 充满了象征意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animosity</t>
+  </si>
+  <si>
+    <t>敌意</t>
+  </si>
+  <si>
+    <t>ambassador</t>
+  </si>
+  <si>
+    <t>大使</t>
+  </si>
+  <si>
+    <t>refute</t>
+  </si>
+  <si>
+    <t>反驳</t>
+  </si>
+  <si>
+    <t>allegation</t>
+  </si>
+  <si>
+    <t>宣称，辩解</t>
+  </si>
+  <si>
+    <t>Zoo officials refuted the allegations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/04/26/china/china-us-ya-ya-panda-diplomacy-intl-hnk/index.html</t>
+  </si>
+  <si>
+    <t>断言，宣称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese_meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english_word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example_sentences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bring Ya Ya home': How a panda in the US turbocharged Chinese nationalist sentiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文书的，牧师的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clerical error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔误，错写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I made a clerical error.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casserole </t>
+  </si>
+  <si>
+    <t>proposition </t>
+  </si>
+  <si>
+    <t>使复兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪，菜肴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuisine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantonese cuisine 粤菜</t>
+  </si>
+  <si>
+    <t>砂锅菜，烘焙菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat and noodles served in a casserole.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥夺，抛弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homebake was divesting natural cheese business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论点，主张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/03/business/kraft-heinz-frozen-meals/index.html</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/03/business/kraft-heinz-frozen-meals/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraft wants to remake the TV dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（商场货架之间的）过道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overindulging </t>
+  </si>
+  <si>
+    <t>flesh</t>
+  </si>
+  <si>
+    <t>mayonnaise</t>
+  </si>
+  <si>
+    <t>probiotics</t>
+  </si>
+  <si>
+    <t>artisanal </t>
+  </si>
+  <si>
+    <t>indulge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度放纵，过多享用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁就，任凭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You just want to eat it where you’re not overindulging too much, because it can quickly add up in terms of calories.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The protein found in cheese is a good alternative to protein derived from flesh.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentic ricotta is produced by treating the whey that is leftover after milk is coagulated to produce cheese.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whey </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coagulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝固，使结块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳清（牛奶结块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasteurize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用巴氏灭菌消毒 v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋黄酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前生论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some cheeses can also be a good source of probiotics, and cheese made from raw or unpasteurized milk as great options.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The artisanal cheese varieties can cost a pretty penny.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2021/11/07/health/healthiest-cheese-wellness/index.html</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2021/11/07/health/healthiest-cheese-wellness/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What’s the healthiest cheese? The best options, according to experts</t>
+  </si>
+  <si>
+    <t>plea </t>
+  </si>
+  <si>
+    <t>misdemeanor </t>
+  </si>
+  <si>
+    <t>probation</t>
+  </si>
+  <si>
+    <t>staunchly </t>
+  </si>
+  <si>
+    <t>swath </t>
+  </si>
+  <si>
+    <t>antics </t>
+  </si>
+  <si>
+    <t>orgy </t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/05/politics/madison-cawthorn-loaded-handgun-airport/index.html</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/05/politics/madison-cawthorn-loaded-handgun-airport/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madison Cawthorn pleads guilty in case over bringing a loaded handgun through TSA checkpoint</t>
+  </si>
+  <si>
+    <t>plead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaded guilty 认罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩护，恳求 v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩护，恳求 n.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guilty plea 有罪答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third-degree misdemeanor 轻罪三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓刑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The former Republican congressman was fined $250, without probation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He remains staunchly committed to responsible gun ownership.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细长的列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a swath of his colleagues 他的同事们 a swath of land 一片土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽可笑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>podcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢宴会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He claimed on a podcast that he had been invited to an orgy in Washington. 他曾发过被邀请去参加狂欢宴会的博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curb </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马路牙子 n. 限制，克制 v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curb drug addiction 克制毒瘾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aisle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinvigorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraft Heinz has been trying to reinvigorate decades-old brands like Velveeta and Oscar Mayer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The apparent contrast between the pandas in the US and Russia was seized on by Chinese social media.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征收，提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">His message changed since mid-2021, coinciding with skepticism among conservatives who have at times booed President Donald Trump for touting Covid-19 vaccines.
  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2023/04/25/health/florida-covid-vaccine-analysis-ladapo/index.html</t>
-  </si>
-  <si>
-    <t>Florida surgeon general altered Covid-19 vaccine analysis to suggest higher risk for younger men, Politico reports</t>
-  </si>
-  <si>
-    <t>Florida surgeon general altered Covid-19 vaccine analysis to suggest higher risk for younger men, Politico reports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>antagonistic</t>
-  </si>
-  <si>
-    <t>敌对的</t>
-  </si>
-  <si>
-    <t>levied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heated discussions highlight how antagonistic the US-China relationship has become.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some believed she had not been given proper care and attention - an accusation first levied by animal advocates in 2021 but denied repeatedly by the Memphis Zoo.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outright</t>
-  </si>
-  <si>
-    <t>直率的，彻底的，直接的</t>
-  </si>
-  <si>
-    <t>provocation</t>
-  </si>
-  <si>
-    <t>激怒，挑衅</t>
-  </si>
-  <si>
-    <t>Treating our national treasure with such an attitude is an outright provocation of China.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病毒式扩散</t>
-  </si>
-  <si>
-    <t>effusive</t>
-  </si>
-  <si>
-    <t>感情横溢的</t>
-  </si>
-  <si>
-    <t>go viral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meanwhile, videos of two playful, energetic pandas at the Moscow Zoo went viral on Chinese social media, drawing effusive praise for Russia for its care of the Chinese bears.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seize on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用，抓住</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The apparent contrast between the pandas in the US and Russia was seized on by Chinese state media.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordeal</t>
-  </si>
-  <si>
-    <t>苦难</t>
-  </si>
-  <si>
-    <t>Determined to rescue Ya Ya from her perceived ordeal, Chinese internet users rallied to bring the panda home as soon as possible.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lade</t>
-  </si>
-  <si>
-    <t>装载</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>装满的，负担重的</t>
-  </si>
-  <si>
-    <t>Like her arrival in the US, her return to China is laden with symbolism. 充满了象征意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animosity</t>
-  </si>
-  <si>
-    <t>敌意</t>
-  </si>
-  <si>
-    <t>ambassador</t>
-  </si>
-  <si>
-    <t>大使</t>
-  </si>
-  <si>
-    <t>refute</t>
-  </si>
-  <si>
-    <t>反驳</t>
-  </si>
-  <si>
-    <t>allegation</t>
-  </si>
-  <si>
-    <t>宣称，辩解</t>
-  </si>
-  <si>
-    <t>Zoo officials refuted the allegations.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2023/04/26/china/china-us-ya-ya-panda-diplomacy-intl-hnk/index.html</t>
-  </si>
-  <si>
-    <t>断言，宣称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allege</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chinese_meaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>english_word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example_sentences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bring Ya Ya home': How a panda in the US turbocharged Chinese nationalist sentiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clerical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文书的，牧师的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clerical error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔误，错写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I made a clerical error.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reinvigorate</t>
-  </si>
-  <si>
-    <t>casserole </t>
-  </si>
-  <si>
-    <t>proposition </t>
-  </si>
-  <si>
-    <t>使复兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kraft Heinz has been trying to reinvigorate decades-old brands like Velveeta and Oscar Mayer.</t>
-  </si>
-  <si>
-    <t>烹饪，菜肴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuisine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phrase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cantonese cuisine 粤菜</t>
-  </si>
-  <si>
-    <t>砂锅菜，烘焙菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meat and noodles served in a casserole.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>divest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剥夺，抛弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Homebake was divesting natural cheese business.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论点，主张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2023/05/03/business/kraft-heinz-frozen-meals/index.html</t>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2023/05/03/business/kraft-heinz-frozen-meals/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kraft wants to remake the TV dinner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（商场货架之间的）过道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overindulging </t>
-  </si>
-  <si>
-    <t>flesh</t>
-  </si>
-  <si>
-    <t>mayonnaise</t>
-  </si>
-  <si>
-    <t>probiotics</t>
-  </si>
-  <si>
-    <t>artisanal </t>
-  </si>
-  <si>
-    <t>indulge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过度放纵，过多享用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迁就，任凭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You just want to eat it where you’re not overindulging too much, because it can quickly add up in terms of calories.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The protein found in cheese is a good alternative to protein derived from flesh.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authentic ricotta is produced by treating the whey that is leftover after milk is coagulated to produce cheese.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whey </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coagulate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝固，使结块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳清（牛奶结块）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pasteurize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用巴氏灭菌消毒 v.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋黄酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前生论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some cheeses can also be a good source of probiotics, and cheese made from raw or unpasteurized milk as great options.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手工的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The artisanal cheese varieties can cost a pretty penny.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2021/11/07/health/healthiest-cheese-wellness/index.html</t>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2021/11/07/health/healthiest-cheese-wellness/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What’s the healthiest cheese? The best options, according to experts</t>
-  </si>
-  <si>
-    <t>plea </t>
-  </si>
-  <si>
-    <t>misdemeanor </t>
-  </si>
-  <si>
-    <t>probation</t>
-  </si>
-  <si>
-    <t>staunchly </t>
-  </si>
-  <si>
-    <t>swath </t>
-  </si>
-  <si>
-    <t>antics </t>
-  </si>
-  <si>
-    <t>orgy </t>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2023/05/05/politics/madison-cawthorn-loaded-handgun-airport/index.html</t>
-  </si>
-  <si>
-    <t>https://www.cnn.com/2023/05/05/politics/madison-cawthorn-loaded-handgun-airport/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madison Cawthorn pleads guilty in case over bringing a loaded handgun through TSA checkpoint</t>
-  </si>
-  <si>
-    <t>plead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pleaded guilty 认罪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辩护，恳求 v.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辩护，恳求 n.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guilty plea 有罪答辩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻罪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>third-degree misdemeanor 轻罪三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓刑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The former Republican congressman was fined $250, without probation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚定的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He remains staunchly committed to responsible gun ownership.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细长的列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a swath of his colleagues 他的同事们 a swath of land 一片土地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑稽动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>antic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑稽可笑的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>podcast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢宴会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He claimed on a podcast that he had been invited to an orgy in Washington. 他曾发过被邀请去参加狂欢宴会的博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curb </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马路牙子 n. 限制，克制 v.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curb drug addiction 克制毒瘾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inmate</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/09/australia/australia-william-leslie-arnold-cold-case-intl-hnk-dst/index.html</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2023/05/09/australia/australia-william-leslie-arnold-cold-case-intl-hnk-dst/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loving father exposed as a convicted killer who lived life on the run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mourn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incarceration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀悼 v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监禁 n.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decades of incarceration before a death noted by some and mourned by few.</t>
+  </si>
+  <si>
+    <t>同居者，（同房间的）犯人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arnold’s escape from prison, while still a young man in 1967, led to a totally different outcome that ended incongruously in Australia.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incongruous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相称的，不协调的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得假释的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parolee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was a parolee.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deputy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人， 副的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deputy chief 副总监</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,6 +1254,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1268,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1328,6 +1391,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,8 +1582,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:G145" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G145" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:G152" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G152" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{408CA4B4-5772-4747-BD58-41C784593BF0}" name="english_word" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A94E175C-7535-4548-ACC9-2BDE26D96277}" name="chinese_meaning" dataDxfId="5"/>
@@ -1794,16 +1860,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.78515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.2109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="49.35546875" customWidth="1"/>
     <col min="5" max="5" width="68.78515625" customWidth="1"/>
@@ -1813,16 +1879,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>64</v>
@@ -2081,7 +2147,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -2850,10 +2916,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
@@ -2878,7 +2944,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>152</v>
       </c>
@@ -3091,7 +3157,7 @@
         <v>181</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="18"/>
@@ -3108,10 +3174,10 @@
         <v>184</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G88" s="18"/>
     </row>
@@ -3127,10 +3193,10 @@
         <v>189</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G89" s="18"/>
     </row>
@@ -3146,10 +3212,10 @@
         <v>189</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G90" s="18"/>
     </row>
@@ -3163,10 +3229,10 @@
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G91" s="18"/>
     </row>
@@ -3180,14 +3246,14 @@
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G92" s="18"/>
     </row>
-    <row r="93" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>194</v>
       </c>
@@ -3195,16 +3261,18 @@
         <v>195</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="7"/>
+      <c r="D93" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="E93" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>196</v>
       </c>
@@ -3212,16 +3280,18 @@
         <v>200</v>
       </c>
       <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
+      <c r="D94" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="E94" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G94" s="18"/>
     </row>
-    <row r="95" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>197</v>
       </c>
@@ -3229,12 +3299,14 @@
         <v>198</v>
       </c>
       <c r="C95" s="6"/>
-      <c r="D95" s="7"/>
+      <c r="D95" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="E95" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G95" s="18"/>
     </row>
@@ -3246,277 +3318,281 @@
         <v>199</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G96" s="18"/>
     </row>
     <row r="97" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G97" s="18"/>
     </row>
     <row r="98" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B98" s="6"/>
+        <v>330</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="C98" s="6"/>
       <c r="D98" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E99" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G99" s="18"/>
     </row>
     <row r="100" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G100" s="18"/>
     </row>
     <row r="101" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G102" s="18"/>
     </row>
     <row r="103" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="7" t="s">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G104" s="18"/>
     </row>
     <row r="105" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G105" s="18"/>
     </row>
     <row r="106" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G106" s="18"/>
     </row>
     <row r="107" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G108" s="18"/>
     </row>
     <row r="109" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G109" s="18"/>
     </row>
     <row r="110" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G110" s="18"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
@@ -3526,20 +3602,20 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G112" s="18">
         <v>45049</v>
@@ -3547,20 +3623,20 @@
     </row>
     <row r="113" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="7" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G113" s="18">
         <v>45049</v>
@@ -3568,20 +3644,20 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G114" s="18">
         <v>45049</v>
@@ -3589,20 +3665,20 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="F115" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G115" s="18">
         <v>45049</v>
@@ -3610,20 +3686,20 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G116" s="18">
         <v>45049</v>
@@ -3631,18 +3707,18 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G117" s="18">
         <v>45049</v>
@@ -3650,10 +3726,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
@@ -3663,20 +3739,20 @@
     </row>
     <row r="119" spans="1:7" s="13" customFormat="1" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>279</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="17" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G119" s="20">
         <v>45050</v>
@@ -3684,18 +3760,18 @@
     </row>
     <row r="120" spans="1:7" s="13" customFormat="1" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G120" s="20">
         <v>45050</v>
@@ -3703,20 +3779,20 @@
     </row>
     <row r="121" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G121" s="20">
         <v>45050</v>
@@ -3724,20 +3800,20 @@
     </row>
     <row r="122" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G122" s="20">
         <v>45050</v>
@@ -3745,20 +3821,20 @@
     </row>
     <row r="123" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G123" s="20">
         <v>45050</v>
@@ -3766,18 +3842,18 @@
     </row>
     <row r="124" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G124" s="20">
         <v>45050</v>
@@ -3785,18 +3861,18 @@
     </row>
     <row r="125" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G125" s="20">
         <v>45050</v>
@@ -3804,20 +3880,20 @@
     </row>
     <row r="126" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G126" s="20">
         <v>45050</v>
@@ -3825,20 +3901,20 @@
     </row>
     <row r="127" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G127" s="20">
         <v>45050</v>
@@ -3846,20 +3922,20 @@
     </row>
     <row r="128" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G128" s="18">
         <v>45051</v>
@@ -3867,20 +3943,20 @@
     </row>
     <row r="129" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G129" s="18">
         <v>45051</v>
@@ -3888,20 +3964,20 @@
     </row>
     <row r="130" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G130" s="18">
         <v>45051</v>
@@ -3909,20 +3985,20 @@
     </row>
     <row r="131" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G131" s="18">
         <v>45051</v>
@@ -3930,20 +4006,20 @@
     </row>
     <row r="132" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G132" s="18">
         <v>45051</v>
@@ -3951,20 +4027,20 @@
     </row>
     <row r="133" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G133" s="18">
         <v>45051</v>
@@ -3972,35 +4048,35 @@
     </row>
     <row r="134" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G134" s="18"/>
     </row>
     <row r="135" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G135" s="18">
         <v>45051</v>
@@ -4008,39 +4084,39 @@
     </row>
     <row r="136" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G136" s="18"/>
     </row>
     <row r="137" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G137" s="18">
         <v>45051</v>
@@ -4048,78 +4124,148 @@
     </row>
     <row r="138" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G138" s="18">
         <v>45051</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="9"/>
-      <c r="B139" s="10"/>
+    <row r="139" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A139" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>340</v>
+      </c>
       <c r="C139" s="10"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="19"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="9"/>
-      <c r="B140" s="6"/>
+      <c r="D139" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G139" s="19">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A140" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="18"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="9"/>
-      <c r="B141" s="6"/>
+      <c r="D140" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G140" s="19">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A141" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="18"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="9"/>
-      <c r="B142" s="6"/>
+      <c r="E141" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G141" s="19">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A142" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="C142" s="6"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="18"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="9"/>
-      <c r="B143" s="6"/>
+      <c r="D142" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G142" s="19">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A143" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="C143" s="6"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="18"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="9"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="D143" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G143" s="19">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A144" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="18"/>
+      <c r="E144" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G144" s="19">
+        <v>45055</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="9"/>
@@ -4129,6 +4275,69 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="18"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="9"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="9"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="18"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="9"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="18"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="9"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="18"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="9"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="18"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="9"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="18"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="9"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/words_data/words.xlsx
+++ b/words_data/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Android_Studio_Workspace\vocab-lib\words_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F4AB1-3371-437E-A5BD-87FD052E8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFBF97D-20D6-4E9F-9718-7D8110999364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8554" yWindow="3446" windowWidth="23717" windowHeight="14434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8031" yWindow="2777" windowWidth="23718" windowHeight="14434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1862,14 +1862,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.78515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.2109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.92578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="49.35546875" customWidth="1"/>
     <col min="5" max="5" width="68.78515625" customWidth="1"/>

--- a/words_data/words.xlsx
+++ b/words_data/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Android_Studio_Workspace\vocab-lib\words_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFBF97D-20D6-4E9F-9718-7D8110999364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5F0D5-FD1B-4E88-8B2C-0D213397AF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8031" yWindow="2777" windowWidth="23718" windowHeight="14434" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="3789" windowWidth="24686" windowHeight="13594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="373">
   <si>
     <t>stopgap</t>
   </si>
@@ -1228,6 +1228,82 @@
   <si>
     <t>deputy chief 副总监</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>pox </t>
+  </si>
+  <si>
+    <t>shingles</t>
+  </si>
+  <si>
+    <t>paralysis</t>
+  </si>
+  <si>
+    <t>contagious</t>
+  </si>
+  <si>
+    <t>prednisone </t>
+  </si>
+  <si>
+    <t>herpes </t>
+  </si>
+  <si>
+    <t>综合征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带状疱疹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙面板，木瓦，鹅软石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘫痪，麻痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转染性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contagious syndrome 转染性综合证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shingle structure 叠瓦构造，shingle roof    木瓦屋顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强的松（药物，肾上腺皮质激素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varicella-zoster is a herpes virus that causes chickenpox.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疱疹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chickenpox </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水痘</t>
   </si>
 </sst>
 </file>
@@ -1582,8 +1658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:G152" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G152" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}" name="表1" displayName="表1" ref="A1:G161" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G161" xr:uid="{0F209680-2C2F-46EF-A34B-75AE30500D8D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{408CA4B4-5772-4747-BD58-41C784593BF0}" name="english_word" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A94E175C-7535-4548-ACC9-2BDE26D96277}" name="chinese_meaning" dataDxfId="5"/>
@@ -1860,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2056,7 +2132,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -4268,8 +4344,12 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="9"/>
-      <c r="B145" s="6"/>
+      <c r="A145" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -4277,8 +4357,12 @@
       <c r="G145" s="18"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="9"/>
-      <c r="B146" s="6"/>
+      <c r="A146" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -4286,8 +4370,12 @@
       <c r="G146" s="18"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="9"/>
-      <c r="B147" s="6"/>
+      <c r="A147" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -4295,26 +4383,40 @@
       <c r="G147" s="18"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="9"/>
-      <c r="B148" s="6"/>
+      <c r="A148" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="18"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="9"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+    <row r="149" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A149" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="18"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="9"/>
-      <c r="B150" s="6"/>
+      <c r="A150" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -4322,22 +4424,119 @@
       <c r="G150" s="18"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="9"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
+      <c r="A151" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>366</v>
+      </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="18"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="9"/>
-      <c r="B152" s="6"/>
+    <row r="152" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A152" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="18"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="18"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="9"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="18"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="9"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="18"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="9"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="18"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="9"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="18"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="9"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="9"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="9"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="9"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/words_data/words.xlsx
+++ b/words_data/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Android_Studio_Workspace\vocab-lib\words_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5F0D5-FD1B-4E88-8B2C-0D213397AF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF51229-FA99-4DF5-81E7-EEB353C1DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="3789" windowWidth="24686" windowHeight="13594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="375">
   <si>
     <t>stopgap</t>
   </si>
@@ -1304,6 +1304,12 @@
   </si>
   <si>
     <t>水痘</t>
+  </si>
+  <si>
+    <t>Ramsay Hunt Syndrome: The condition public figures Sen. Dianne Feinstein and pop star Justin Bieber have brought to light | CNN</t>
+  </si>
+  <si>
+    <t>What is the virus that attacked Sen. Dianne Feinstein and Justin Bieber?</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1945,7 @@
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4343,7 +4349,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>352</v>
       </c>
@@ -4352,11 +4358,17 @@
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="18"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E145" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G145" s="18">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>353</v>
       </c>
@@ -4365,11 +4377,17 @@
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="18"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E146" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G146" s="18">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>371</v>
       </c>
@@ -4378,11 +4396,17 @@
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="18"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E147" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G147" s="18">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>354</v>
       </c>
@@ -4391,9 +4415,15 @@
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="18"/>
+      <c r="E148" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G148" s="18">
+        <v>45064</v>
+      </c>
     </row>
     <row r="149" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
@@ -4406,11 +4436,17 @@
         <v>367</v>
       </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="18"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E149" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G149" s="18">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>355</v>
       </c>
@@ -4419,11 +4455,17 @@
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="18"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E150" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G150" s="18">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>356</v>
       </c>
@@ -4434,9 +4476,15 @@
         <v>366</v>
       </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="18"/>
+      <c r="E151" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G151" s="18">
+        <v>45064</v>
+      </c>
     </row>
     <row r="152" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
@@ -4447,11 +4495,17 @@
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="18"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E152" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G152" s="18">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>358</v>
       </c>
@@ -4462,9 +4516,15 @@
       <c r="D153" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="18"/>
+      <c r="E153" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G153" s="18">
+        <v>45064</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="9"/>
